--- a/apps/features/backlog/iPhone/connection/connection_page.xlsx
+++ b/apps/features/backlog/iPhone/connection/connection_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\iPhone\connection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D883457-AC17-47F9-9DF9-89499D39F99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3470469B-21B7-43EC-959E-E1E143E951E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="145">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -646,6 +646,21 @@
 4. navigate to the vpn connection page.
 5. click on "connect" button
 6. goto browser , check DNS leak on ip-score website</t>
+  </si>
+  <si>
+    <t>TC_SYM_AC_033</t>
+  </si>
+  <si>
+    <t>check if the local ip is changing in the device connection page after connecting to server</t>
+  </si>
+  <si>
+    <t>1. go to appstore and install symlexvpn in the iphone.
+2. open the installed symlexvpn application.
+3. login with proper credentials
+4. navigate to the vpn connection page.
+5. local ip will show in the connection page
+6. connect to server, ip will change to that server ip
+7. disconnect the server, ip will change into the local ip</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1635,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G34" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G35" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
@@ -1838,8 +1853,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3116,7 +3131,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>104</v>
       </c>
@@ -3156,7 +3171,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>110</v>
       </c>
@@ -3196,14 +3211,26 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+    <row r="35" spans="1:26" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="13"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -29969,7 +29996,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F34" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F35" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>

--- a/apps/features/backlog/iPhone/connection/connection_page.xlsx
+++ b/apps/features/backlog/iPhone/connection/connection_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\iPhone\connection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3470469B-21B7-43EC-959E-E1E143E951E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A0479D-DA5C-42A6-A19C-74B12F3574AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="148">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -662,6 +662,22 @@
 6. connect to server, ip will change to that server ip
 7. disconnect the server, ip will change into the local ip</t>
   </si>
+  <si>
+    <t>check connect button working properly while net is off</t>
+  </si>
+  <si>
+    <t>1. go to appstore and install symlexvpn in the iphone.
+2. open the installed symlexvpn application.
+3. login with proper credentials
+4. navigate to the vpn connection page.
+5. connect to any server
+6. turn off wifi
+7. try to connect to another server
+8. check connect button working properly while net is off</t>
+  </si>
+  <si>
+    <t>Ref. Id</t>
+  </si>
 </sst>
 </file>
 
@@ -861,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -923,11 +939,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1543,84 +1596,84 @@
   </dxfs>
   <tableStyles count="16">
     <tableStyle name="Template-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="55"/>
-      <tableStyleElement type="firstRowStripe" dxfId="54"/>
-      <tableStyleElement type="secondRowStripe" dxfId="53"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
+      <tableStyleElement type="firstRowStripe" dxfId="55"/>
+      <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
     <tableStyle name="1419-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="52"/>
-      <tableStyleElement type="firstRowStripe" dxfId="51"/>
-      <tableStyleElement type="secondRowStripe" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
+      <tableStyleElement type="secondRowStripe" dxfId="51"/>
     </tableStyle>
     <tableStyle name="2147-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="49"/>
-      <tableStyleElement type="firstRowStripe" dxfId="48"/>
-      <tableStyleElement type="secondRowStripe" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="50"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
+      <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
     <tableStyle name="2170-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="firstRowStripe" dxfId="45"/>
-      <tableStyleElement type="secondRowStripe" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="47"/>
+      <tableStyleElement type="firstRowStripe" dxfId="46"/>
+      <tableStyleElement type="secondRowStripe" dxfId="45"/>
     </tableStyle>
     <tableStyle name="2177-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
+      <tableStyleElement type="firstRowStripe" dxfId="43"/>
+      <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
     <tableStyle name="2253-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="40"/>
-      <tableStyleElement type="firstRowStripe" dxfId="39"/>
-      <tableStyleElement type="secondRowStripe" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="40"/>
+      <tableStyleElement type="secondRowStripe" dxfId="39"/>
     </tableStyle>
     <tableStyle name="2255-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="37"/>
-      <tableStyleElement type="firstRowStripe" dxfId="36"/>
-      <tableStyleElement type="secondRowStripe" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="firstRowStripe" dxfId="37"/>
+      <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
     <tableStyle name="2274-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="firstRowStripe" dxfId="33"/>
-      <tableStyleElement type="secondRowStripe" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="33"/>
     </tableStyle>
     <tableStyle name="2277-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
     <tableStyle name="2279-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
     <tableStyle name="2280-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
     <tableStyle name="2283-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
     <tableStyle name="2285-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="2287-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="2292-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="2293-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1635,15 +1688,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G35" dataDxfId="7">
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:H36" dataDxfId="8">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D741CFE6-AF1A-4B55-9B35-EEF6E56D74FD}" name="Ref. Id" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1850,11 +1904,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z990"/>
+  <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1865,11 +1919,11 @@
     <col min="4" max="4" width="50.6640625" customWidth="1"/>
     <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="16" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
@@ -1899,7 +1953,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1927,7 +1981,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1947,9 +2001,11 @@
         <v>5</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1968,8 +2024,9 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1991,7 +2048,9 @@
       <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2010,8 +2069,9 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -2031,7 +2091,7 @@
         <v>106</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2050,8 +2110,9 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2071,7 +2132,7 @@
         <v>106</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2090,8 +2151,9 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -2111,7 +2173,7 @@
         <v>106</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2130,8 +2192,9 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2151,7 +2214,7 @@
         <v>106</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2170,8 +2233,9 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2191,7 +2255,7 @@
         <v>106</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2210,8 +2274,9 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -2231,7 +2296,7 @@
         <v>106</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2250,8 +2315,9 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:27" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -2271,7 +2337,7 @@
         <v>106</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2290,8 +2356,9 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -2311,7 +2378,7 @@
         <v>106</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2330,8 +2397,9 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2351,7 +2419,7 @@
         <v>106</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2370,8 +2438,9 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -2391,7 +2460,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2410,8 +2479,9 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
@@ -2431,7 +2501,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2450,8 +2520,9 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
@@ -2471,7 +2542,7 @@
         <v>31</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2490,8 +2561,9 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
@@ -2511,7 +2583,7 @@
         <v>106</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2530,8 +2602,9 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
@@ -2551,7 +2624,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2570,8 +2643,9 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>34</v>
       </c>
@@ -2591,7 +2665,7 @@
         <v>106</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2610,8 +2684,9 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
@@ -2631,7 +2706,7 @@
         <v>106</v>
       </c>
       <c r="G20" s="13"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2650,8 +2725,9 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>36</v>
       </c>
@@ -2671,7 +2747,7 @@
         <v>106</v>
       </c>
       <c r="G21" s="13"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2690,8 +2766,9 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>37</v>
       </c>
@@ -2711,7 +2788,7 @@
         <v>106</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2730,8 +2807,9 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
@@ -2751,7 +2829,7 @@
         <v>106</v>
       </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2770,8 +2848,9 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>39</v>
       </c>
@@ -2791,7 +2870,7 @@
         <v>106</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2810,8 +2889,9 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>40</v>
       </c>
@@ -2831,7 +2911,7 @@
         <v>106</v>
       </c>
       <c r="G25" s="13"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2850,8 +2930,9 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -2871,7 +2952,7 @@
         <v>106</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2890,8 +2971,9 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
@@ -2911,7 +2993,7 @@
         <v>106</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2930,8 +3012,9 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>46</v>
       </c>
@@ -2951,7 +3034,7 @@
         <v>106</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2970,8 +3053,9 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>49</v>
       </c>
@@ -2991,7 +3075,7 @@
         <v>106</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3010,8 +3094,9 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>50</v>
       </c>
@@ -3031,7 +3116,7 @@
         <v>107</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3050,8 +3135,9 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="1:27" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>78</v>
       </c>
@@ -3071,7 +3157,7 @@
         <v>107</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3090,8 +3176,9 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>79</v>
       </c>
@@ -3111,7 +3198,7 @@
         <v>106</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3130,8 +3217,9 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>104</v>
       </c>
@@ -3151,7 +3239,7 @@
         <v>106</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3170,8 +3258,9 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>110</v>
       </c>
@@ -3191,7 +3280,7 @@
         <v>106</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="13"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3210,8 +3299,9 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" spans="1:27" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>142</v>
       </c>
@@ -3231,7 +3321,7 @@
         <v>106</v>
       </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="13"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3250,16 +3340,31 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="1"/>
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="1:27" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="25">
+        <v>8919</v>
+      </c>
+      <c r="H36" s="13"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3278,8 +3383,9 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3307,7 +3413,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3335,7 +3441,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3363,7 +3469,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3391,7 +3497,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3419,7 +3525,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3447,7 +3553,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3475,7 +3581,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3503,7 +3609,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3531,7 +3637,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3559,7 +3665,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3587,7 +3693,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -29996,7 +30102,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F35" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F36" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>

--- a/apps/features/backlog/iPhone/connection/connection_page.xlsx
+++ b/apps/features/backlog/iPhone/connection/connection_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\iPhone\connection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A0479D-DA5C-42A6-A19C-74B12F3574AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1E578C-89BA-4FAA-902D-605A5BAF540B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="153">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -678,6 +678,27 @@
   <si>
     <t>Ref. Id</t>
   </si>
+  <si>
+    <t>TC_SYM_AC_034</t>
+  </si>
+  <si>
+    <t>TC_SYM_AC_035</t>
+  </si>
+  <si>
+    <t>check redirecting to connection page from network protection page (settings) working or not</t>
+  </si>
+  <si>
+    <t>1. go to appstore and install symlexvpn in the iphone.
+2. open the installed symlexvpn application.
+3. login with proper credentials
+4. navigate to the vpn settings
+5. goto network protection page, tap on "test your network" button while vpn is not connected
+6.  click on "connect VPN"
+7. check if redirecting to connection page or not</t>
+  </si>
+  <si>
+    <t>should redirect to connection page</t>
+  </si>
 </sst>
 </file>
 
@@ -931,6 +952,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -939,14 +963,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="57">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -964,33 +1016,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1688,7 +1713,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:H36" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:H37" dataDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="6"/>
@@ -1696,8 +1721,8 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D741CFE6-AF1A-4B55-9B35-EEF6E56D74FD}" name="Ref. Id" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{D741CFE6-AF1A-4B55-9B35-EEF6E56D74FD}" name="Ref. Id" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1907,8 +1932,8 @@
   <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1924,15 +1949,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1954,13 +1979,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3344,7 +3369,7 @@
     </row>
     <row r="36" spans="1:27" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>67</v>
@@ -3361,7 +3386,7 @@
       <c r="F36" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="19">
         <v>8919</v>
       </c>
       <c r="H36" s="13"/>
@@ -3385,15 +3410,29 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="1"/>
+    <row r="37" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="19">
+        <v>8940</v>
+      </c>
+      <c r="H37" s="13"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -30102,7 +30141,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F36" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F37" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
